--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-515888.742162698</v>
+        <v>-518525.6977802208</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>343.4876945314813</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>23.16425648007422</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>127.8940404079011</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>132.2515173935752</v>
+        <v>159.8064904065535</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>260.6407561040826</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>90.04055501403302</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.33220217170517</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>15.37599160421586</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>79.77884995491858</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>102.2049872788566</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>45.29620155332805</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>79.41653965146578</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>73.98898794535445</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>214.0780236353764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>37.41782514683927</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599964</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>167.363726718209</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>139.483705355054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>60.32297266393854</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>158.2465685970621</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>65.78783178799263</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.064632051139</v>
+        <v>1570.129849812016</v>
       </c>
       <c r="C2" t="n">
-        <v>1515.064632051139</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2538.941089531394</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2330.195448137218</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2330.195448137218</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2330.195448137218</v>
       </c>
       <c r="W2" t="n">
-        <v>1515.064632051139</v>
+        <v>2330.195448137218</v>
       </c>
       <c r="X2" t="n">
-        <v>1515.064632051139</v>
+        <v>1956.729689876138</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.064632051139</v>
+        <v>1956.729689876138</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925522</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2071.387056101683</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.9860105762135</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063346</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263853</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X4" t="n">
-        <v>735.7785897197436</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.9860105762135</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.344648689697</v>
+        <v>1565.850280418409</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.344648689697</v>
+        <v>1565.850280418409</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.344648689697</v>
+        <v>1207.584581811658</v>
       </c>
       <c r="E5" t="n">
-        <v>619.5563960914526</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>208.570491301845</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4568,7 +4568,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.483980665509</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y5" t="n">
-        <v>1005.344648689697</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="6">
@@ -4653,19 +4653,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300791</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.7199774115531</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C7" t="n">
-        <v>366.7837944836463</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>216.6671550713105</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>68.75406148891742</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>68.75406148891742</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485138</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="W7" t="n">
-        <v>535.7199774115531</v>
+        <v>974.5285832373073</v>
       </c>
       <c r="X7" t="n">
-        <v>535.7199774115531</v>
+        <v>974.5285832373073</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.7199774115531</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4838,16 +4838,16 @@
         <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1688.365042002428</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X8" t="n">
-        <v>1688.365042002428</v>
+        <v>1996.775265382425</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.365042002428</v>
+        <v>1606.635933406614</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.4655134886756</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C10" t="n">
-        <v>131.4655134886756</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>131.4655134886756</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>131.4655134886756</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>131.4655134886756</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>131.4655134886756</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671836</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302231</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X10" t="n">
-        <v>352.2580926322057</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.4655134886756</v>
+        <v>835.4071654353978</v>
       </c>
     </row>
     <row r="11">
@@ -5033,34 +5033,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5188,13 +5188,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5236,13 +5236,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.506641481895</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133963</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310032</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330928</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5598,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782968</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851671</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
         <v>555.8158034133954</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>264.0500279773688</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2386.030787960121</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.175953615025</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
@@ -6704,46 +6704,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,19 +7561,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>129.7511347056854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N6" t="n">
         <v>249.3877325071649</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107896</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>60.50016306149541</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>21.78519723952621</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>221.3469283095119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39789163128766</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>72.44497470121472</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462248</v>
+        <v>140.2947128462269</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>72.44497470121456</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713731</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194098</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.66255928343557</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>6.05227404618315</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9.000252501565768</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018788.078675757</v>
+        <v>1018788.078675758</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26326,7 +26326,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
@@ -26344,10 +26344,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67970.39961451509</v>
+        <v>67970.39961451513</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26430,31 +26430,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732007</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1046600.311854381</v>
+        <v>-1046890.919019227</v>
       </c>
       <c r="C6" t="n">
-        <v>39582.8025041837</v>
+        <v>39582.80250418375</v>
       </c>
       <c r="D6" t="n">
-        <v>39582.8025041837</v>
+        <v>39582.80250418375</v>
       </c>
       <c r="E6" t="n">
-        <v>-354402.638975933</v>
+        <v>-354437.3769013686</v>
       </c>
       <c r="F6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="G6" t="n">
-        <v>153082.8026486127</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="H6" t="n">
-        <v>153082.8026486131</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="I6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="J6" t="n">
-        <v>-14522.37516136965</v>
+        <v>-14557.11308680536</v>
       </c>
       <c r="K6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231769</v>
       </c>
       <c r="L6" t="n">
-        <v>153082.8026486129</v>
+        <v>153048.0647231773</v>
       </c>
       <c r="M6" t="n">
-        <v>20475.50891968622</v>
+        <v>20440.77099425042</v>
       </c>
       <c r="N6" t="n">
-        <v>128138.5696685198</v>
+        <v>128138.56966852</v>
       </c>
       <c r="O6" t="n">
-        <v>147566.2876621515</v>
+        <v>147566.2876621514</v>
       </c>
       <c r="P6" t="n">
         <v>147566.2876621515</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,19 +26972,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>532.1234559996094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>532.1234559996096</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>100.2879589187202</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3332090471814</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>93.45813799546195</v>
+        <v>65.90316498248367</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>121.2896139681792</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>321.507147758921</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>148.974397873099</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>271.1470067323751</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>269.4621187624944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>267.5261133996124</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>134.5357786286093</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>67.83496950366306</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578702</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4306638292177</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N6" t="n">
         <v>640.5848321000387</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>319.7101787446113</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676406</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35264,10 +35264,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>395.9248450576184</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629545</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
